--- a/TunnelstoDelete.xlsx
+++ b/TunnelstoDelete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkonsonlas\psScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72995E3-F00C-4F0E-B98C-7322BAF02465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6756A7-3C49-4A52-84A7-9817E51C1B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="3615" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13845" yWindow="1155" windowWidth="9630" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Peers2Remove" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6873" uniqueCount="1497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6856" uniqueCount="1499">
   <si>
     <t>connection</t>
   </si>
@@ -4529,6 +4529,12 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Trinity Health</t>
+  </si>
+  <si>
+    <t>Arkansas Valley Regional Medical Center</t>
   </si>
 </sst>
 </file>
@@ -5134,7 +5140,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5190,9 +5196,6 @@
     <xf numFmtId="0" fontId="13" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5697,10 +5700,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{71CEDA90-B3D3-4285-B14C-7D295BDB8B3A}" name="Table16" displayName="Table16" ref="A1:D168" totalsRowShown="0" tableBorderDxfId="20">
-  <autoFilter ref="A1:D168" xr:uid="{D7551EC1-1E01-480C-B2C8-1258491D3398}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D168">
-    <sortCondition ref="A1:A168"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{71CEDA90-B3D3-4285-B14C-7D295BDB8B3A}" name="Table16" displayName="Table16" ref="A1:D163" totalsRowShown="0" tableBorderDxfId="20">
+  <autoFilter ref="A1:D163" xr:uid="{D7551EC1-1E01-480C-B2C8-1258491D3398}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D161">
+    <sortCondition ref="A1:A161"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CD90747D-E2D1-4464-979E-AB8C675D2DE8}" name="Peer"/>
@@ -7448,15 +7451,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DBABDC-E6BD-4927-A582-67109634CC05}">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="119" bestFit="1" customWidth="1"/>
@@ -7502,7 +7505,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>110</v>
       </c>
       <c r="B4" s="17"/>
@@ -7514,7 +7517,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>110</v>
       </c>
       <c r="B5" s="17"/>
@@ -7526,7 +7529,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>110</v>
       </c>
       <c r="B6" s="17"/>
@@ -7538,7 +7541,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="17"/>
@@ -7550,7 +7553,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="40" t="s">
         <v>110</v>
       </c>
       <c r="B8" s="10"/>
@@ -7653,7 +7656,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="39" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="17"/>
@@ -7665,7 +7668,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>145</v>
       </c>
       <c r="B18" s="17"/>
@@ -7677,7 +7680,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="40" t="s">
         <v>145</v>
       </c>
       <c r="B19" s="10"/>
@@ -7725,7 +7728,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="17"/>
@@ -7737,7 +7740,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="40" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="10"/>
@@ -7796,7 +7799,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="39" t="s">
         <v>94</v>
       </c>
       <c r="B29" s="17"/>
@@ -7808,7 +7811,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="40" t="s">
         <v>94</v>
       </c>
       <c r="B30" s="10"/>
@@ -7867,7 +7870,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="39" t="s">
         <v>150</v>
       </c>
       <c r="B35" s="17"/>
@@ -7879,7 +7882,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="39" t="s">
         <v>150</v>
       </c>
       <c r="B36" s="17"/>
@@ -7891,7 +7894,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="40" t="s">
         <v>150</v>
       </c>
       <c r="B37" s="10"/>
@@ -7950,7 +7953,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="39" t="s">
         <v>106</v>
       </c>
       <c r="B42" s="17"/>
@@ -7962,7 +7965,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="40" t="s">
         <v>106</v>
       </c>
       <c r="B43" s="10"/>
@@ -8021,7 +8024,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="39" t="s">
         <v>148</v>
       </c>
       <c r="B48" s="17"/>
@@ -8033,7 +8036,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="40" t="s">
         <v>148</v>
       </c>
       <c r="B49" s="10"/>
@@ -8081,7 +8084,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="39" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="17"/>
@@ -8093,7 +8096,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="40" t="s">
         <v>107</v>
       </c>
       <c r="B54" s="10"/>
@@ -8141,7 +8144,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="39" t="s">
         <v>128</v>
       </c>
       <c r="B58" s="17"/>
@@ -8153,7 +8156,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="41" t="s">
         <v>128</v>
       </c>
       <c r="B59" s="10"/>
@@ -8165,7 +8168,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="42" t="s">
         <v>128</v>
       </c>
       <c r="B60" s="17"/>
@@ -8177,7 +8180,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="42" t="s">
         <v>141</v>
       </c>
       <c r="B61" s="17" t="s">
@@ -8191,7 +8194,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="42" t="s">
         <v>141</v>
       </c>
       <c r="B62" s="17"/>
@@ -8203,7 +8206,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="42" t="s">
         <v>141</v>
       </c>
       <c r="B63" s="17"/>
@@ -8215,7 +8218,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="42" t="s">
         <v>141</v>
       </c>
       <c r="B64" s="17"/>
@@ -8227,7 +8230,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="41" t="s">
         <v>141</v>
       </c>
       <c r="B65" s="10"/>
@@ -8239,7 +8242,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="42" t="s">
         <v>141</v>
       </c>
       <c r="B66" s="17"/>
@@ -8251,7 +8254,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="42" t="s">
         <v>151</v>
       </c>
       <c r="B67" s="17" t="s">
@@ -8265,7 +8268,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="42" t="s">
         <v>151</v>
       </c>
       <c r="B68" s="17"/>
@@ -8277,7 +8280,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="42" t="s">
         <v>151</v>
       </c>
       <c r="B69" s="17"/>
@@ -8289,7 +8292,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="42" t="s">
         <v>151</v>
       </c>
       <c r="B70" s="17"/>
@@ -8301,7 +8304,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="42" t="s">
         <v>151</v>
       </c>
       <c r="B71" s="17"/>
@@ -8313,7 +8316,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="41" t="s">
         <v>151</v>
       </c>
       <c r="B72" s="10"/>
@@ -8325,7 +8328,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="42" t="s">
         <v>151</v>
       </c>
       <c r="B73" s="17"/>
@@ -8337,7 +8340,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="43" t="s">
+      <c r="A74" s="42" t="s">
         <v>151</v>
       </c>
       <c r="B74" s="17"/>
@@ -8349,7 +8352,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="42" t="s">
         <v>146</v>
       </c>
       <c r="B75" s="17" t="s">
@@ -8363,7 +8366,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="42" t="s">
         <v>146</v>
       </c>
       <c r="B76" s="17"/>
@@ -8375,7 +8378,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="43" t="s">
+      <c r="A77" s="42" t="s">
         <v>146</v>
       </c>
       <c r="B77" s="17"/>
@@ -8387,7 +8390,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="43" t="s">
+      <c r="A78" s="42" t="s">
         <v>146</v>
       </c>
       <c r="B78" s="17"/>
@@ -8399,7 +8402,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="42" t="s">
         <v>146</v>
       </c>
       <c r="B79" s="17"/>
@@ -8411,7 +8414,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="41" t="s">
         <v>146</v>
       </c>
       <c r="B80" s="10"/>
@@ -8423,7 +8426,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="42" t="s">
         <v>146</v>
       </c>
       <c r="B81" s="17"/>
@@ -8493,7 +8496,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="41" t="s">
+      <c r="A87" s="40" t="s">
         <v>155</v>
       </c>
       <c r="B87" s="10"/>
@@ -8563,7 +8566,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="39" t="s">
         <v>142</v>
       </c>
       <c r="B93" s="17"/>
@@ -8575,7 +8578,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="41" t="s">
+      <c r="A94" s="40" t="s">
         <v>142</v>
       </c>
       <c r="B94" s="10"/>
@@ -8598,874 +8601,806 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B96" s="20"/>
+      <c r="A96" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1486</v>
+      </c>
       <c r="C96" t="s">
         <v>791</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>1086</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B97" s="20"/>
+      <c r="A97" s="30" t="s">
+        <v>97</v>
+      </c>
       <c r="C97" t="s">
         <v>793</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>1088</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B98" s="20"/>
+      <c r="A98" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="17"/>
       <c r="C98" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>1087</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B99" s="20"/>
-      <c r="C99" t="s">
-        <v>794</v>
+      <c r="A99" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="38" t="s">
+        <v>1043</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>1289</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B100" s="39"/>
+      <c r="A100" s="30" t="s">
+        <v>97</v>
+      </c>
       <c r="C100" s="38" t="s">
         <v>1043</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>243</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="38" t="s">
+      <c r="A101" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C101" t="s">
+        <v>791</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" t="s">
+        <v>793</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B103" s="17"/>
+      <c r="C103" t="s">
+        <v>794</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="38" t="s">
         <v>1043</v>
       </c>
-      <c r="D101" s="15" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="38" t="s">
+      <c r="D104" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" s="38" t="s">
         <v>1043</v>
       </c>
-      <c r="D102" s="15" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="D105" s="15" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C106" t="s">
         <v>791</v>
       </c>
-      <c r="D103" s="15" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C104" t="s">
-        <v>793</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B105" s="17"/>
-      <c r="C105" t="s">
-        <v>794</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="38" t="s">
-        <v>1043</v>
-      </c>
       <c r="D106" s="15" t="s">
-        <v>199</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C107" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C107" t="s">
+        <v>793</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B108" s="17"/>
+      <c r="C108" t="s">
+        <v>794</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="38" t="s">
         <v>1043</v>
       </c>
-      <c r="D107" s="15" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="D109" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C110" s="38" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C111" t="s">
         <v>791</v>
       </c>
-      <c r="D108" s="15" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C109" t="s">
-        <v>793</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B110" s="17"/>
-      <c r="C110" t="s">
-        <v>794</v>
-      </c>
-      <c r="D110" s="15" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="B111" s="10"/>
-      <c r="C111" s="38" t="s">
-        <v>1043</v>
-      </c>
       <c r="D111" s="15" t="s">
-        <v>179</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C112" s="38" t="s">
-        <v>1043</v>
+        <v>144</v>
+      </c>
+      <c r="C112" t="s">
+        <v>793</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>1360</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>69</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1488</v>
+      <c r="A113" s="30" t="s">
+        <v>144</v>
       </c>
       <c r="C113" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>1100</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>69</v>
+      <c r="A114" s="30" t="s">
+        <v>144</v>
       </c>
       <c r="C114" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>1101</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B115" s="17"/>
+      <c r="A115" s="30" t="s">
+        <v>144</v>
+      </c>
       <c r="C115" t="s">
         <v>794</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>1293</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B116" s="10"/>
-      <c r="C116" s="38" t="s">
-        <v>1043</v>
+      <c r="A116" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C116" t="s">
+        <v>794</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>174</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>69</v>
-      </c>
+      <c r="A117" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B117" s="10"/>
       <c r="C117" s="38" t="s">
         <v>1043</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>1371</v>
+        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="B118" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="C118" s="38" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C119" s="38" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120" s="38" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C121" t="s">
         <v>791</v>
       </c>
-      <c r="D118" s="15" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>144</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="D121" s="15" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
         <v>793</v>
       </c>
-      <c r="D119" s="15" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C120" t="s">
-        <v>792</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>144</v>
-      </c>
-      <c r="C121" t="s">
-        <v>794</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>144</v>
-      </c>
-      <c r="C122" t="s">
-        <v>794</v>
-      </c>
       <c r="D122" s="15" t="s">
-        <v>1315</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>144</v>
-      </c>
+      <c r="A123" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" s="17"/>
       <c r="C123" t="s">
         <v>794</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>1314</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
-        <v>144</v>
+      <c r="A124" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="B124" s="10"/>
       <c r="C124" s="38" t="s">
         <v>1043</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>144</v>
+      <c r="A125" s="30" t="s">
+        <v>121</v>
       </c>
       <c r="C125" s="38" t="s">
         <v>1043</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>1404</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>144</v>
-      </c>
-      <c r="C126" s="38" t="s">
+      <c r="A126" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C126" t="s">
+        <v>791</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C127" t="s">
+        <v>793</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B128" s="17"/>
+      <c r="C128" t="s">
+        <v>794</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B129" s="10"/>
+      <c r="C129" s="38" t="s">
         <v>1043</v>
       </c>
-      <c r="D126" s="15" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>144</v>
-      </c>
-      <c r="C127" s="38" t="s">
+      <c r="D129" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C130" s="38" t="s">
         <v>1043</v>
       </c>
-      <c r="D127" s="15" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>121</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="D130" s="15" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C131" t="s">
         <v>791</v>
       </c>
-      <c r="D128" s="15" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>121</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="D131" s="15" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C132" t="s">
         <v>793</v>
       </c>
-      <c r="D129" s="15" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B130" s="17"/>
-      <c r="C130" t="s">
+      <c r="D132" s="15" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C133" t="s">
+        <v>792</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134" s="17"/>
+      <c r="C134" t="s">
         <v>794</v>
       </c>
-      <c r="D130" s="15" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B131" s="10"/>
-      <c r="C131" s="38" t="s">
+      <c r="D134" s="15" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" s="10"/>
+      <c r="C135" s="38" t="s">
         <v>1043</v>
       </c>
-      <c r="D131" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>121</v>
-      </c>
-      <c r="C132" s="38" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D132" s="15" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>122</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C133" t="s">
-        <v>791</v>
-      </c>
-      <c r="D133" s="15" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>122</v>
-      </c>
-      <c r="C134" t="s">
-        <v>793</v>
-      </c>
-      <c r="D134" s="15" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B135" s="17"/>
-      <c r="C135" t="s">
-        <v>794</v>
-      </c>
       <c r="D135" s="15" t="s">
-        <v>1292</v>
+        <v>232</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B136" s="10"/>
+      <c r="A136" s="30" t="s">
+        <v>139</v>
+      </c>
       <c r="C136" s="38" t="s">
         <v>1043</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>220</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>122</v>
-      </c>
-      <c r="C137" s="38" t="s">
+      <c r="A137" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C137" t="s">
+        <v>791</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C138" t="s">
+        <v>793</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B139" s="17"/>
+      <c r="C139" t="s">
+        <v>794</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B140" s="10"/>
+      <c r="C140" s="38" t="s">
         <v>1043</v>
       </c>
-      <c r="D137" s="15" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>139</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="D140" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C141" s="38" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C142" t="s">
         <v>791</v>
       </c>
-      <c r="D138" s="15" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>139</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="D142" s="15" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C143" t="s">
         <v>793</v>
       </c>
-      <c r="D139" s="15" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>139</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="D143" s="15" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C144" t="s">
         <v>792</v>
       </c>
-      <c r="D140" s="15" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B141" s="17"/>
-      <c r="C141" t="s">
+      <c r="D144" s="15" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B145" s="17"/>
+      <c r="C145" t="s">
         <v>794</v>
       </c>
-      <c r="D141" s="15" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B142" s="10"/>
-      <c r="C142" s="38" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D142" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>139</v>
-      </c>
-      <c r="C143" s="38" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D143" s="15" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>118</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C144" t="s">
-        <v>791</v>
-      </c>
-      <c r="D144" s="15" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>118</v>
-      </c>
-      <c r="C145" t="s">
-        <v>793</v>
-      </c>
       <c r="D145" s="15" t="s">
-        <v>1123</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="17" t="s">
-        <v>118</v>
+      <c r="A146" s="39" t="s">
+        <v>138</v>
       </c>
       <c r="B146" s="17"/>
       <c r="C146" t="s">
         <v>794</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>1305</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B147" s="10"/>
-      <c r="C147" s="38" t="s">
-        <v>1043</v>
+      <c r="A147" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B147" s="17"/>
+      <c r="C147" t="s">
+        <v>794</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>216</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>118</v>
-      </c>
+      <c r="A148" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B148" s="10"/>
       <c r="C148" s="38" t="s">
         <v>1043</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>1354</v>
+        <v>231</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B149" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="C149" s="38" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C150" s="38" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C151" t="s">
         <v>791</v>
       </c>
-      <c r="D149" s="15" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>138</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="D151" s="15" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C152" t="s">
         <v>793</v>
       </c>
-      <c r="D150" s="15" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>138</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="D152" s="15" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C153" t="s">
         <v>792</v>
       </c>
-      <c r="D151" s="15" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B152" s="17"/>
-      <c r="C152" t="s">
-        <v>794</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B153" s="17"/>
-      <c r="C153" t="s">
-        <v>794</v>
-      </c>
       <c r="D153" s="15" t="s">
-        <v>1342</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="17" t="s">
-        <v>138</v>
+      <c r="A154" s="39" t="s">
+        <v>120</v>
       </c>
       <c r="B154" s="17"/>
       <c r="C154" t="s">
         <v>794</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>1341</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B155" s="10"/>
-      <c r="C155" s="38" t="s">
-        <v>1043</v>
+      <c r="A155" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B155" s="17"/>
+      <c r="C155" t="s">
+        <v>794</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>231</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>138</v>
-      </c>
+      <c r="A156" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B156" s="10"/>
       <c r="C156" s="38" t="s">
         <v>1043</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>1346</v>
+        <v>218</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>138</v>
+      <c r="A157" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="C157" s="38" t="s">
         <v>1043</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>1349</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B158" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C158" t="s">
-        <v>791</v>
+      <c r="C158" s="38" t="s">
+        <v>1043</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>1047</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1496</v>
       </c>
       <c r="C159" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>1049</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C160" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>1048</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B161" s="17"/>
-      <c r="C161" t="s">
-        <v>794</v>
-      </c>
-      <c r="D161" s="15" t="s">
-        <v>1306</v>
+      <c r="A161" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B161" s="10"/>
+      <c r="C161" s="38" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D161" s="29" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B162" s="17"/>
-      <c r="C162" t="s">
-        <v>794</v>
+      <c r="A162" t="s">
+        <v>131</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>1307</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B163" s="10"/>
-      <c r="C163" s="38" t="s">
-        <v>1043</v>
+      <c r="A163" t="s">
+        <v>14</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>120</v>
-      </c>
-      <c r="C164" s="38" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D164" s="15" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>120</v>
-      </c>
-      <c r="C165" s="38" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D165" s="15" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>124</v>
-      </c>
-      <c r="B166" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C166" t="s">
-        <v>791</v>
-      </c>
-      <c r="D166" s="15" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>124</v>
-      </c>
-      <c r="C167" t="s">
-        <v>793</v>
-      </c>
-      <c r="D167" s="15" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B168" s="10"/>
-      <c r="C168" s="38" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D168" s="29" t="s">
-        <v>221</v>
+        <v>1498</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D168">
-    <cfRule type="duplicateValues" dxfId="21" priority="29"/>
+  <conditionalFormatting sqref="D2:D163">
+    <cfRule type="duplicateValues" dxfId="21" priority="31"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/TunnelstoDelete.xlsx
+++ b/TunnelstoDelete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkonsonlas\psScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6756A7-3C49-4A52-84A7-9817E51C1B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B0C0B7-54A0-4666-8636-D486FD6F281A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13845" yWindow="1155" windowWidth="9630" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="1230" windowWidth="9630" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Peers2Remove" sheetId="3" r:id="rId1"/>
@@ -7454,7 +7454,7 @@
   <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9346,7 +9346,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="30" t="s">
         <v>124</v>
       </c>
       <c r="B159" t="s">
@@ -9360,7 +9360,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="30" t="s">
         <v>124</v>
       </c>
       <c r="C160" t="s">
@@ -9371,7 +9371,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="10" t="s">
+      <c r="A161" s="40" t="s">
         <v>124</v>
       </c>
       <c r="B161" s="10"/>
@@ -9383,7 +9383,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" s="30" t="s">
         <v>131</v>
       </c>
       <c r="D162" s="15" t="s">
@@ -9391,7 +9391,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D163" s="15" t="s">
